--- a/data/financial_time_series_data/financial_time_series_calibrations/cocoa-riskDriverType-PnL-factor-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/cocoa-riskDriverType-PnL-factor-calibrations.xlsx
@@ -42,7 +42,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.1669938903074291, 0.17349024860728535, 0.14254544684708273, 0.09975535641190915, 0.3404595408690726, 0.1229581093307985, 0.12852055332703474, 0.10650116605051921, 0.08000244804074287, 0.06481099929168353, 0.06833042973491867, 0.0799434686744605, 0.09246487460878752, 0.12686102864210005, 0.10548074226774477, 0.07634652953318254, 0.05155336634034248, 0.07673070465143676, 0.09659603807148719]</t>
+    <t>[1.0, 0.19201877694542827, 0.1983576640446433, 0.15699605721127627, 0.11437189584417722, 0.35345911830904025, 0.14534986961001894, 0.15549198717630752, 0.12305655074868245, 0.10258067720422014, 0.07826776012757741, 0.09524037177642192, 0.09740928089664322, 0.10280408920347854, 0.1495242878911461, 0.12322569587886337, 0.09317324009323355, 0.07167131479090139, 0.08380183271437734, 0.11472346774879641]</t>
   </si>
   <si>
     <t>c</t>
@@ -69,7 +69,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.20690862227933796, 0.1760466890264626, 0.14743916434052343, 0.1538595299831895, 0.22687502133329226, 0.09852935027087113, 0.09092200711492578, 0.09667415182347273, 0.06159593961168139, 0.05163045517019052, 0.06059477438914226, 0.05366395573426656, 0.07079415100525947, 0.09508304101236936, 0.06628154053780128, 0.06713595436218116, 0.04139865672864384, 0.07306828841821414, 0.0705801851489394]</t>
+    <t>[1.0, 0.22633845846720407, 0.20083941064244692, 0.15013174284200512, 0.1680052779909548, 0.2377359815138933, 0.12632201858329176, 0.10983530541288955, 0.1063880697760478, 0.08404494016379159, 0.06842959644765147, 0.07911280419673475, 0.06454201349199791, 0.08271630948648453, 0.11885947917866424, 0.08122060444046485, 0.08135675221228136, 0.05296040179494797, 0.09230361516332905, 0.08954449453675926]</t>
   </si>
   <si>
     <t>omega</t>
@@ -81,16 +81,16 @@
     <t>beta</t>
   </si>
   <si>
-    <t>[1.0, -0.013775053015007846, -0.02156464969660699, -0.04986770677529028, -0.07785427743193256, 0.2858515579378893, 0.003985694495308255, 0.01575130509599974, -0.01688268918018764, -0.02594344179811095, -0.0569404915601391, -0.05687756414269855, -0.02447746168666186, 0.0005260610760951826, 0.04761963557441333, 0.005946388416291039, -0.02612032602020691, -0.06413925535895053, -0.03500739737575092, -0.003414831846636455]</t>
+    <t>[1.0, -0.012570249480646832, -0.01851845280122588, -0.05910702294046567, -0.08551980785327967, 0.282896005165324, 0.011070542747553013, 0.03119874116986023, -0.024121303626147016, -0.017087644801969323, -0.06098195323044896, -0.051876205104514836, -0.018426770103801258, -0.00585158267805371, 0.060877216591329206, 0.012052561264814535, -0.029108120343660313, -0.05409705432783527, -0.04456293021433298, -0.0063834955291892205]</t>
   </si>
   <si>
     <t>gamma</t>
   </si>
   <si>
-    <t>[1.0, -0.013288818941889817, -0.021531389942433157, -0.049499376621131866, -0.077511476717025, 0.2857102359080204, 0.004105221541577397, 0.01568445203758796, -0.01672946114953772, -0.025826556798317014, -0.05669922915677184, -0.056795690327919625, -0.024520314560724794, 0.0003880282927809528, 0.047696173783339, 0.005964123103088135, -0.02613995771624074, -0.06387529359570512, -0.034907225596347985, -0.003355753836183142]</t>
-  </si>
-  <si>
-    <t>[1.0, 0.0011681032352210221, 0.013668324976471077, -0.013822752932041391, -0.05645091569930099, 0.19997557663185783, -0.004895302614050568, -0.0026366336377889685, -0.013149727924291203, -0.032900448021, -0.050156103916332614, -0.04708391064681624, -0.02357975568133763, -0.003835915886918612, 0.03703783350101522, 0.003716503975674865, -0.02883165283068174, -0.050297413228623196, -0.024292394005576333, -0.00847616281910443]</t>
+    <t>[0.9999999999999999, -0.012216490567329416, -0.018799691257434185, -0.059001843732208244, -0.08519837350833613, 0.28257030624722046, 0.011284636334402198, 0.031077568909843284, -0.02390257209279314, -0.01708269363288374, -0.06068968557000507, -0.05177131967106617, -0.018547384796799765, -0.006111562350623109, 0.061014234442891564, 0.012183700908471285, -0.02909016560562657, -0.05374892125045072, -0.04447429651496943, -0.006190288521372873]</t>
+  </si>
+  <si>
+    <t>[0.9999999999999998, 0.010701332566368441, 0.025242362120509523, -0.018294170579458494, -0.0663176070816311, 0.19670832254093507, 0.0010840124992194248, 0.002668947228981423, -0.017892847807274202, -0.02644926536237185, -0.055550357757325114, -0.034402963072744035, -0.02355295203281852, -0.01395989796835577, 0.04791532258364179, 0.005256561332065603, -0.033329144105376754, -0.0469376073953147, -0.03883335799749384, -0.010009045280512503]</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.01500033315721391</v>
+        <v>0.04562550251115292</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.8118217891558744</v>
+        <v>0.8120396882278178</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>91.79608475420139</v>
+        <v>96.43207676280547</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -545,7 +545,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.9423418095801301</v>
+        <v>0.9031296572280179</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-3.212984172830069</v>
+        <v>-3.166948928744786</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.7400464977676613</v>
+        <v>0.7502244064012349</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -569,7 +569,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>65.63204004333613</v>
+        <v>69.8187561924296</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>3.88632297582046</v>
+        <v>3.836364800123929</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.6708846057308263</v>
+        <v>0.6781113055542988</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -593,7 +593,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>56.56774011135487</v>
+        <v>58.0956279966797</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.01197926087109453</v>
+        <v>0.02473144370188488</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -635,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>2.204911989033901</v>
+        <v>1.805247805946451</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -643,7 +643,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.08131979781250244</v>
+        <v>0.08399015283849863</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -651,7 +651,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.8989268132231232</v>
+        <v>0.9015039943398633</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.01470117553078959</v>
+        <v>-0.004109738811114168</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -693,7 +693,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>2.185787682832729</v>
+        <v>1.801905728858356</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -701,7 +701,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.07547831225368834</v>
+        <v>0.07791483242018225</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -709,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.8998037190470908</v>
+        <v>0.9019065457830313</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.01016966525741637</v>
+        <v>0.01124457692643716</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.1215200027016597</v>
+        <v>0.1935749980606548</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -767,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>2.210628761619787</v>
+        <v>1.559249988892618</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -775,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.09649194224421995</v>
+        <v>0.1050183655641683</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.8911862783536941</v>
+        <v>0.9012108961626137</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -799,7 +799,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>-0.01909799958170311</v>
+        <v>-0.03838862779801082</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.8024155853125102</v>
+        <v>0.7992911694649822</v>
       </c>
     </row>
   </sheetData>

--- a/data/financial_time_series_data/financial_time_series_calibrations/cocoa-riskDriverType-PnL-factor-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/cocoa-riskDriverType-PnL-factor-calibrations.xlsx
@@ -42,7 +42,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.19201877694542827, 0.1983576640446433, 0.15699605721127627, 0.11437189584417722, 0.35345911830904025, 0.14534986961001894, 0.15549198717630752, 0.12305655074868245, 0.10258067720422014, 0.07826776012757741, 0.09524037177642192, 0.09740928089664322, 0.10280408920347854, 0.1495242878911461, 0.12322569587886337, 0.09317324009323355, 0.07167131479090139, 0.08380183271437734, 0.11472346774879641]</t>
+    <t>[1.0, 0.030600588635550187, -0.029540904003915465, -0.09697052313774429, -0.12779469732892362, 0.05420881505183922, 0.04419029556251109, 0.02125268161986324, 0.029707175885835994, -0.001369909127833077, -0.031373880168384556, -0.034267624359396134, -0.018372370288722156, 0.01576268673491234, 0.0543114741839612, 0.042042854631216514, -0.014036317903990077, -0.053768555602639344, -0.041373302230417366, -0.008419637703546074]</t>
   </si>
   <si>
     <t>c</t>
@@ -69,7 +69,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.22633845846720407, 0.20083941064244692, 0.15013174284200512, 0.1680052779909548, 0.2377359815138933, 0.12632201858329176, 0.10983530541288955, 0.1063880697760478, 0.08404494016379159, 0.06842959644765147, 0.07911280419673475, 0.06454201349199791, 0.08271630948648453, 0.11885947917866424, 0.08122060444046485, 0.08135675221228136, 0.05296040179494797, 0.09230361516332905, 0.08954449453675926]</t>
+    <t>[1.0, 0.09501472519105546, -0.010099245303529054, -0.04360775588204318, -0.0004897075237519728, -0.00083984967145351, 0.0019486378772516919, 0.011205196392947953, -0.006530353722282627, 0.013748186186056995, -0.014780064814794212, -0.02157924316048197, -0.014620290573766388, 0.012220304217283018, 0.0380646417147604, 0.022892098872732896, -0.01006452044373719, -0.01440459422284515, -0.02124060493066299, -0.0029229401475169077]</t>
   </si>
   <si>
     <t>omega</t>
@@ -81,16 +81,16 @@
     <t>beta</t>
   </si>
   <si>
-    <t>[1.0, -0.012570249480646832, -0.01851845280122588, -0.05910702294046567, -0.08551980785327967, 0.282896005165324, 0.011070542747553013, 0.03119874116986023, -0.024121303626147016, -0.017087644801969323, -0.06098195323044896, -0.051876205104514836, -0.018426770103801258, -0.00585158267805371, 0.060877216591329206, 0.012052561264814535, -0.029108120343660313, -0.05409705432783527, -0.04456293021433298, -0.0063834955291892205]</t>
+    <t>[0.9999999999999998, -0.0008627823674555213, -0.028529995602220436, -0.11115575727606782, -0.1328412856105255, 0.08088296356836173, 0.04328433032054229, 0.04337665297285956, 0.02049359213723305, -0.0010685686558664163, -0.045858868927285655, -0.04477389013930206, -0.024471401251200356, 0.017014193405680597, 0.06846552605425321, 0.04549225959825005, -0.023311917988061943, -0.05784246032677719, -0.05215880671126466, -0.012856221091272968]</t>
   </si>
   <si>
     <t>gamma</t>
   </si>
   <si>
-    <t>[0.9999999999999999, -0.012216490567329416, -0.018799691257434185, -0.059001843732208244, -0.08519837350833613, 0.28257030624722046, 0.011284636334402198, 0.031077568909843284, -0.02390257209279314, -0.01708269363288374, -0.06068968557000507, -0.05177131967106617, -0.018547384796799765, -0.006111562350623109, 0.061014234442891564, 0.012183700908471285, -0.02909016560562657, -0.05374892125045072, -0.04447429651496943, -0.006190288521372873]</t>
-  </si>
-  <si>
-    <t>[0.9999999999999998, 0.010701332566368441, 0.025242362120509523, -0.018294170579458494, -0.0663176070816311, 0.19670832254093507, 0.0010840124992194248, 0.002668947228981423, -0.017892847807274202, -0.02644926536237185, -0.055550357757325114, -0.034402963072744035, -0.02355295203281852, -0.01395989796835577, 0.04791532258364179, 0.005256561332065603, -0.033329144105376754, -0.0469376073953147, -0.03883335799749384, -0.010009045280512503]</t>
+    <t>[1.0, -0.0008192878388057399, -0.028556545139194128, -0.11116024726017197, -0.13286681814237125, 0.08090216783848529, 0.0432913831290287, 0.04338348805922216, 0.020508728870014765, -0.0010724944832385722, -0.04585716302198939, -0.04477334796681199, -0.02447364372429212, 0.017001027226634075, 0.068492637611004, 0.04550631221492327, -0.023315717055498158, -0.05784954582096911, -0.05215537938544461, -0.012843643308377133]</t>
+  </si>
+  <si>
+    <t>[0.9999999999999998, -0.008025275281468262, -0.029549478171343284, -0.09470717830131274, -0.12871725102609663, 0.057995935517742486, 0.042381182801543474, 0.018505288552674495, 0.029472660722511715, -0.0025515514157752246, -0.03197290549692689, -0.034215664701933116, -0.018562113231714385, 0.015601570020451828, 0.05345707571997411, 0.040333582563707775, -0.01391115105026955, -0.05156065862933223, -0.03839823727188279, -0.009204316313072978]</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.04562550251115292</v>
+        <v>0.004039263385507611</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.8120396882278178</v>
+        <v>0.7913649637533144</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>96.43207676280547</v>
+        <v>0.1051938498895583</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-3.166948928744786</v>
+        <v>-0.1684406617938381</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.7502244064012349</v>
+        <v>0.6071982181646322</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -569,7 +569,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>69.8187561924296</v>
+        <v>0.06322301707547211</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>3.836364800123929</v>
+        <v>0.1707552539951331</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.6781113055542988</v>
+        <v>0.597887810225523</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -593,7 +593,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>58.0956279966797</v>
+        <v>0.06398278579562673</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.02473144370188488</v>
+        <v>0.0003230406599573063</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -635,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>1.805247805946451</v>
+        <v>0.1118326499454141</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -643,7 +643,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.08399015283849863</v>
+        <v>0.04787736281940361</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -651,7 +651,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.9015039943398633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.004109738811114168</v>
+        <v>0.0003020550773373664</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -693,7 +693,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>1.801905728858356</v>
+        <v>0.1118391169853019</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -701,7 +701,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.07791483242018225</v>
+        <v>0.04732365125392876</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -709,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.9019065457830313</v>
+        <v>1.429755534477818E-09</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.01124457692643716</v>
+        <v>0.0009649352121795174</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.1935749980606548</v>
+        <v>0.004533686584388569</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -767,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>1.559249988892618</v>
+        <v>0.100645380974496</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -775,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.1050183655641683</v>
+        <v>0.03675851323285068</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.9012108961626137</v>
+        <v>2.257850002708465E-12</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -799,7 +799,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>-0.03838862779801082</v>
+        <v>0.01207496408546178</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.7992911694649822</v>
+        <v>0.7894993704025048</v>
       </c>
     </row>
   </sheetData>

--- a/data/financial_time_series_data/financial_time_series_calibrations/cocoa-riskDriverType-PnL-factor-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/cocoa-riskDriverType-PnL-factor-calibrations.xlsx
@@ -42,7 +42,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.01894102771928936, -0.019670265618563575, -0.09081835049780533, -0.11359040189764509, 0.04664822126121759, 0.034742402051949894, 0.015642697785322682, 0.029784675993134117, -0.00761146856004732, -0.022200639978741943, -0.03969115114693855, -0.010877999920044698, 0.023375132167109274, 0.04650016505822555, 0.03909493985267734, -0.017161985291886405, -0.053044746224849136, -0.030883225902101307, -0.0057698539719296974]</t>
+    <t>[1.0, 0.16587883390732558, 0.1737308605979352, 0.14316903807132492, 0.108581244783241, 0.34366576030772633, 0.12020598228464434, 0.1347600818044229, 0.10590525330660626, 0.08370637385165386, 0.06641034785321234, 0.06608861524405524, 0.08389848744021032, 0.09425934573975436, 0.1304012214362287, 0.11722249185014903, 0.08191929820863048, 0.05993516418432766, 0.087463629072358, 0.10127371886214095]</t>
   </si>
   <si>
     <t>c</t>
@@ -69,7 +69,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.0808789381217648, -0.009763125111234991, -0.03529130588505593, 0.004685935435454208, -0.0005148937016857764, -0.00695346410220896, -0.0018765562486308769, -0.009331814167843415, 0.007766719082844665, -0.008517538317373919, -0.00435904529058373, -0.009429923753633131, -0.008305472694365308, 0.014041800326358276, 0.0197338206424864, -0.014794798187340207, -0.017153809475702688, -0.023047547671955604, -0.013614948110032467]</t>
+    <t>[1.0, 0.2027334670527049, 0.17050869852100423, 0.14434168333543046, 0.15759880736524873, 0.23469516897431497, 0.09835014564604287, 0.09515598729730786, 0.10205561917727075, 0.060549962940321236, 0.05356550747231093, 0.06129136452416732, 0.05663819061716943, 0.06657332797219698, 0.09231776360412296, 0.06946737907457236, 0.06639410066619329, 0.0444703007967054, 0.07878369704911602, 0.07225219615215117]</t>
   </si>
   <si>
     <t>omega</t>
@@ -81,16 +81,16 @@
     <t>beta</t>
   </si>
   <si>
-    <t>[1.0, -0.0014856402270965086, -0.02170741659546016, -0.09571228152213858, -0.12302214550006509, 0.07285071489978143, 0.03157528833785736, 0.02191426566780673, 0.01680818157851499, -0.008655190412370608, -0.031855672803380954, -0.03956399793867256, -0.014108930535868626, 0.028374838389767083, 0.055252048558861455, 0.040815727519415076, -0.019634211011459617, -0.05500950986413249, -0.039370093922130985, -0.007146632368374033]</t>
+    <t>[0.9999999999999999, -0.015403821002664768, -0.021940679004667188, -0.04913281505074665, -0.07028368780820968, 0.2903129763184927, -0.002213471025706947, 0.01610503420020718, -0.017693341677344213, -0.023382053783121907, -0.05800503861475942, -0.06130107745523617, -0.023816799036103245, -0.0005576054742043746, 0.05078913064788003, 0.010747409324063472, -0.027834730011086217, -0.057042973221021434, -0.030336916478557328, -0.004010179747157036]</t>
   </si>
   <si>
     <t>gamma</t>
   </si>
   <si>
-    <t>[0.9999999999999998, 0.001115360224401732, -0.023215169474317468, -0.09533605968729164, -0.12393039024120144, 0.07384341146788213, 0.03201912770646204, 0.02215561555259953, 0.0179902532142668, -0.00829965416157953, -0.03229455457008353, -0.039776958642227925, -0.014379914609327304, 0.027657907146544154, 0.05697693499700629, 0.04135897809080115, -0.020395639327972663, -0.0550319229380171, -0.03925119540460916, -0.00632558842598423]</t>
-  </si>
-  <si>
-    <t>[0.9999999999999998, -0.008558304478488408, -0.021024237411412423, -0.08969078461706789, -0.11538402464824639, 0.04908290215781946, 0.034973328702108654, 0.014622769697567192, 0.03028952865959912, -0.009676731977774503, -0.023098875786386416, -0.040891471295797975, -0.01142721351674539, 0.023252413705377457, 0.04785038077968523, 0.03875967134755252, -0.017605515809093482, -0.05223093196551657, -0.02949335967818879, -0.005811947083688188]</t>
+    <t>[1.0, -0.015187448945871967, -0.02205748867102263, -0.04897121401367313, -0.07010672203707752, 0.29008673918970956, -0.0020876783821603432, 0.01606650988596511, -0.017521125982496902, -0.023198103633578725, -0.05776177307061119, -0.06120704146148565, -0.023766122331229312, -0.0005977689711279065, 0.0509316883364571, 0.010807225161789571, -0.027722531893364138, -0.05676363124281852, -0.030278860282686063, -0.003880991596474222]</t>
+  </si>
+  <si>
+    <t>[1.0, -0.0011669597040826214, 0.015347392889375812, -0.011157823010246821, -0.047662370095994895, 0.20475804067996925, -0.0091473005465532, 0.000818845016198927, -0.01595360836876988, -0.0331062845154455, -0.053198552258009804, -0.05545262188146058, -0.02385264049525677, -0.00620782067620316, 0.038094902031899934, 0.009703227573229627, -0.029777991376613168, -0.04665223464333657, -0.01984237999413492, -0.008174620502161705]</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.001046730289961594</v>
+        <v>0.01113415480545901</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.790788382076117</v>
+        <v>0.8108811285997877</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.1053324848684297</v>
+        <v>93.62568961948261</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.1739554216577587</v>
+        <v>-3.284423136558633</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.5989158096369355</v>
+        <v>0.7367233751372867</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -569,7 +569,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.06621142453128424</v>
+        <v>66.81380953773717</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.1724593668427255</v>
+        <v>3.922480780724642</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.5884864704276943</v>
+        <v>0.6701410476351632</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -593,7 +593,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.06264133777234353</v>
+        <v>57.95287080899256</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.0003265278490518527</v>
+        <v>0.009597108611915059</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -635,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.1132712606036105</v>
+        <v>1.741404077594689</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -643,7 +643,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.03700669041226579</v>
+        <v>0.07306292907826636</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -651,7 +651,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.9118036367423069</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0007351011675532655</v>
+        <v>-0.01061789751592729</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -693,7 +693,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.1135875003659309</v>
+        <v>1.739570152053577</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -701,7 +701,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.004167342212464989</v>
+        <v>0.06906479509566742</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -709,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.9120602775760585</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.05998213450123976</v>
+        <v>0.007442848126462526</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.001570297833249644</v>
+        <v>0.1021468097139688</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -767,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.1022737828293596</v>
+        <v>1.691963235174012</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -775,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>1.612088099515679E-12</v>
+        <v>0.08775206191443111</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.9064504267509276</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -799,7 +799,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.05639137485714127</v>
+        <v>-0.02055870320743971</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.7897205223191015</v>
+        <v>0.802456396128738</v>
       </c>
     </row>
   </sheetData>

--- a/data/financial_time_series_data/financial_time_series_calibrations/cocoa-riskDriverType-PnL-factor-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/cocoa-riskDriverType-PnL-factor-calibrations.xlsx
@@ -42,7 +42,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.16587883390732558, 0.1737308605979352, 0.14316903807132492, 0.108581244783241, 0.34366576030772633, 0.12020598228464434, 0.1347600818044229, 0.10590525330660626, 0.08370637385165386, 0.06641034785321234, 0.06608861524405524, 0.08389848744021032, 0.09425934573975436, 0.1304012214362287, 0.11722249185014903, 0.08191929820863048, 0.05993516418432766, 0.087463629072358, 0.10127371886214095]</t>
+    <t>[1.0, 0.16587883390732525, 0.17373086059793472, 0.14316903807132475, 0.10858124478324077, 0.343665760307727, 0.12020598228464432, 0.13476008180442295, 0.10590525330660616, 0.08370637385165391, 0.06641034785321229, 0.0660886152440552, 0.08389848744021025, 0.0942593457397544, 0.13040122143622881, 0.11722249185014899, 0.0819192982086305, 0.05993516418432753, 0.08746362907235791, 0.10127371886214083]</t>
   </si>
   <si>
     <t>c</t>
@@ -69,7 +69,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.2027334670527049, 0.17050869852100423, 0.14434168333543046, 0.15759880736524873, 0.23469516897431497, 0.09835014564604287, 0.09515598729730786, 0.10205561917727075, 0.060549962940321236, 0.05356550747231093, 0.06129136452416732, 0.05663819061716943, 0.06657332797219698, 0.09231776360412296, 0.06946737907457236, 0.06639410066619329, 0.0444703007967054, 0.07878369704911602, 0.07225219615215117]</t>
+    <t>[0.9999999999999999, 0.20273346705270492, 0.17050869852100423, 0.1443416833354304, 0.15759880736524876, 0.2346951689743148, 0.09835014564604282, 0.09515598729730779, 0.10205561917727064, 0.06054996294032122, 0.053565507472310835, 0.06129136452416724, 0.05663819061716934, 0.06657332797219696, 0.0923177636041228, 0.06946737907457225, 0.0663941006661933, 0.04447030079670535, 0.07878369704911596, 0.07225219615215112]</t>
   </si>
   <si>
     <t>omega</t>
@@ -81,16 +81,16 @@
     <t>beta</t>
   </si>
   <si>
-    <t>[0.9999999999999999, -0.015403821002664768, -0.021940679004667188, -0.04913281505074665, -0.07028368780820968, 0.2903129763184927, -0.002213471025706947, 0.01610503420020718, -0.017693341677344213, -0.023382053783121907, -0.05800503861475942, -0.06130107745523617, -0.023816799036103245, -0.0005576054742043746, 0.05078913064788003, 0.010747409324063472, -0.027834730011086217, -0.057042973221021434, -0.030336916478557328, -0.004010179747157036]</t>
+    <t>[1.0, -0.015403766148118992, -0.021940637025234605, -0.04913277819011565, -0.07028364947526403, 0.2903129785307082, -0.0022134546163424655, 0.016105038108513225, -0.01769333944689775, -0.02338206274386243, -0.05800505518755358, -0.06130109977807089, -0.023816815134895204, -0.000557623874599821, 0.05078909653542787, 0.010747362245986483, -0.027834769049345863, -0.057043000431734985, -0.030336940320925487, -0.004010215702999658]</t>
   </si>
   <si>
     <t>gamma</t>
   </si>
   <si>
-    <t>[1.0, -0.015187448945871967, -0.02205748867102263, -0.04897121401367313, -0.07010672203707752, 0.29008673918970956, -0.0020876783821603432, 0.01606650988596511, -0.017521125982496902, -0.023198103633578725, -0.05776177307061119, -0.06120704146148565, -0.023766122331229312, -0.0005977689711279065, 0.0509316883364571, 0.010807225161789571, -0.027722531893364138, -0.05676363124281852, -0.030278860282686063, -0.003880991596474222]</t>
-  </si>
-  <si>
-    <t>[1.0, -0.0011669597040826214, 0.015347392889375812, -0.011157823010246821, -0.047662370095994895, 0.20475804067996925, -0.0091473005465532, 0.000818845016198927, -0.01595360836876988, -0.0331062845154455, -0.053198552258009804, -0.05545262188146058, -0.02385264049525677, -0.00620782067620316, 0.038094902031899934, 0.009703227573229627, -0.029777991376613168, -0.04665223464333657, -0.01984237999413492, -0.008174620502161705]</t>
+    <t>[1.0, -0.015187522466586318, -0.022057552074458676, -0.04897126928553795, -0.07010677863292067, 0.2900867098020425, -0.002087710511764046, 0.016066489561913595, -0.017521139953514283, -0.023198109162509445, -0.05776176967483565, -0.06120703451425764, -0.02376612103457624, -0.0005977625876562517, 0.050931711746934435, 0.010807254771187156, -0.02772250542025844, -0.05676361447051285, -0.03027884949756122, -0.003880966280403534]</t>
+  </si>
+  <si>
+    <t>[1.0, -0.0011670443869718496, 0.01534733597342892, -0.011157877663841246, -0.047662421417267425, 0.20475800964189683, -0.00914732214582753, 0.0008188336748218178, -0.01595360901876591, -0.033106288125551615, -0.05319853294154638, -0.0554525971999883, -0.023852627155804836, -0.006207793371211652, 0.03809493676618079, 0.009703272691245872, -0.029777958363226158, -0.04665219941731017, -0.019842345633692058, -0.008174578945439848]</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.01113415480545901</v>
+        <v>0.01113415480545889</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.8108811285997877</v>
+        <v>0.8108811285997884</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -545,7 +545,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.9433719433719434</v>
+        <v>0.4854304635761589</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-3.284423136558633</v>
+        <v>-3.284423136558636</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.7367233751372867</v>
+        <v>0.7367233751372864</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -569,7 +569,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>66.81380953773717</v>
+        <v>66.81380953773719</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>3.922480780724642</v>
+        <v>3.922480780724659</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.6701410476351632</v>
+        <v>0.6701410476351622</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.009597108611915059</v>
+        <v>0.009596696770306468</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -635,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>1.741404077594689</v>
+        <v>1.741396076761665</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -643,7 +643,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.07306292907826636</v>
+        <v>0.07306284130904106</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -651,7 +651,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.9118036367423069</v>
+        <v>0.9118038062191622</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.01061789751592729</v>
+        <v>-0.01061748766108003</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -693,7 +693,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>1.739570152053577</v>
+        <v>1.739576629594997</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -701,7 +701,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.06906479509566742</v>
+        <v>0.06906487534629854</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -709,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.9120602775760585</v>
+        <v>0.9120601040692699</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.007442848126462526</v>
+        <v>0.007442940900472031</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.1021468097139688</v>
+        <v>0.1021490145982567</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -767,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>1.691963235174012</v>
+        <v>1.691970817737928</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -775,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.08775206191443111</v>
+        <v>0.08775223563230546</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.9064504267509276</v>
+        <v>0.9064502041750861</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -799,7 +799,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>-0.02055870320743971</v>
+        <v>-0.02055878783448381</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.802456396128738</v>
+        <v>0.8024563815877848</v>
       </c>
     </row>
   </sheetData>
